--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/0/Output_20_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97708.89109811789</v>
+        <v>17880770.67558189</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>97708.89109811789</v>
+        <v>17880770.67558189</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77174.89116135724</v>
+        <v>9702146.22866858</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77174.89116135724</v>
+        <v>9702146.22866858</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1608611266.056328</v>
+        <v>54986073.6491584</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12648.76491870154</v>
+        <v>1247947.328438038</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24655.54664568111</v>
+        <v>2397383.810479265</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>36662.32837266065</v>
+        <v>3546820.29252049</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50908.71237553795</v>
+        <v>4405043.535897346</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62859.65759797576</v>
+        <v>5563113.423935605</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>74810.60282041358</v>
+        <v>6721183.311973864</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>86787.10912802337</v>
+        <v>7898327.336117764</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>98730.35482957256</v>
+        <v>9070399.117837416</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>112663.7307998348</v>
+        <v>9980468.279483834</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>124563.3723553951</v>
+        <v>11158185.72016257</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>136463.0139109553</v>
+        <v>12335903.1608413</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>148368.4615746555</v>
+        <v>13511760.73378342</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>160275.4930767395</v>
+        <v>14687859.84207908</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>173715.1212410635</v>
+        <v>15656997.2805853</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>193619.5664874706</v>
+        <v>15858797.81559437</v>
       </c>
     </row>
   </sheetData>
